--- a/data/all_wide.xlsx
+++ b/data/all_wide.xlsx
@@ -13497,7 +13497,7 @@
         <v>3969.85</v>
       </c>
       <c r="M286">
-        <v>7502.3</v>
+        <v>7502.299999999999</v>
       </c>
     </row>
     <row r="287">
@@ -35364,7 +35364,7 @@
         <v>5224.450000000001</v>
       </c>
       <c r="M772">
-        <v>8076.95</v>
+        <v>8076.950000000001</v>
       </c>
     </row>
     <row r="773">
@@ -42883,7 +42883,7 @@
         <v>2117.6</v>
       </c>
       <c r="M946">
-        <v>6131.2</v>
+        <v>6131.200000000001</v>
       </c>
     </row>
     <row r="947">
